--- a/biology/Zoologie/Benthosuchus/Benthosuchus.xlsx
+++ b/biology/Zoologie/Benthosuchus/Benthosuchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benthosuchus est un genre éteint de temnospondyles du Trias inférieur, découvert en Russie. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été nommé en 1936 et l'espèce type, Benthosuchus sushkini, a été nommée en 1929. 
 Benthosuchus a été traditionnellement considéré comme un membre de la super-famille des Trematosauroidea, et la famille des Benthosuchidae a été établie en 1940 pour inclure Benthosuchus et le genre de trématosaures Thoosuchus. 
@@ -543,7 +557,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques études phylogénétiques récentes ont enlevé Benthosuchus de la super-famille Trematosauroidea entièrement, en le plaçant comme un parent plus proche des Mastodonsauroidea, un autre groupe de temnospondyles du Trias. 
 D'autres études conservent le Benthosuchus chez les Trematosauroidea, mais comme Benthosuchus et Thoosuchus ont successivement des positions basales sur ces arbres, ils forment un groupement paraphylétique et non un clade valide. 
@@ -576,15 +592,15 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Benthosuchus est traditionnellement considéré comme un proche parent d'un groupe de temnospondyles appelés capitosauridés. 
 En particulier, il ressemble beaucoup au genre Wetlugasaurus. Beaucoup des premières analyses phylogénétiques à grande échelle des temnospondyles placent Benthosuchus dans un clade appelé Capitosauria. 
 Cependant, des analyses plus récentes telles que celle de Fortuny et al. (2011) récupèrent Benthosuchus dans un autre clade appelé Trematosauria. De temps en temps , il est regroupé près de la famille des Trematosauridae comme base membre du groupe des Trematosauroidea.
 Fortuny et al. trouvé que Benthosuchus est positionné à l'extérieur de Trematosauroidea comme un trématosauriens plus basale. Ci-dessous un cladogramme de Fortuny et al. (2011) montrant le placement phylogénétique de Benthosuchus:
-Cladogramme montrant la position phylogénétique de Benthosuchus selon Novikov (2018). Seuls les taxons d'Europe de l'Est du début du Trias sont inclus[2]:
-Cladogramme des Stereospondyli
-Le cladogramme suivant des Stereospondyli est basée selon Dias-da-Silva &amp; Marsicano (2011)[3] :
+Cladogramme montrant la position phylogénétique de Benthosuchus selon Novikov (2018). Seuls les taxons d'Europe de l'Est du début du Trias sont inclus:
 </t>
         </is>
       </c>
@@ -610,12 +626,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cladogramme des Stereospondyli</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant des Stereospondyli est basée selon Dias-da-Silva &amp; Marsicano (2011) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benthosuchus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benthosuchus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (15 juillet 2018)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (15 juillet 2018) :
 Benthosuchus bashkiricus
 Benthosuchus bystrowi
 Benthosuchus gusevae
